--- a/SD Mean.xlsx
+++ b/SD Mean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters\Shreya Masters\520- AI\FINAL PROJECT\Code\Image_Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D035C-6BC2-4AD6-A3FB-7A92C8CCCF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08263C26-B455-4BD3-AB5A-D5251A423145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D2512017-C06F-4ED4-A855-B86281B9870B}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Face NB</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>Faces Perceptron</t>
+  </si>
+  <si>
+    <t>[69.4, 76.2, 83.8, 81.0, 84.6, 91.2, 82.6, 90.4, 88.4, 91.2]</t>
+  </si>
+  <si>
+    <t>[9.068627239003707, 5.1536394906900505, 5.418486873657626, 4.47213595499958, 2.8, 2.9257477676655586, 8.452218643646177, 1.8547236990991407, 8.867919710958146, 4.48998886412873]</t>
+  </si>
+  <si>
+    <t>[71.0, 73.6, 79.2, 76.6, 79.4, 81.0, 78.0, 83.2, 83.2, 81.2]</t>
+  </si>
+  <si>
+    <t>[11.593101396951552, 4.586937976471886, 3.31058907144937, 5.161395160225576, 4.176122603564219, 2.0976176963403033, 4.604345773288535, 4.791659420284375, 2.4819347291981715, 3.3105890714493693]</t>
+  </si>
+  <si>
+    <t>Validation std dev</t>
+  </si>
+  <si>
+    <t>Testing std</t>
   </si>
 </sst>
 </file>
@@ -2359,6 +2377,720 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Perceptron Faces</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$138</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>validation_mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$139:$A$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$139:$B$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1FF-4C36-9FAE-89B5E4B4991D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$138</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>validation_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$139:$A$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$139:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0686272390036997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1536394906900496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4184868736576197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4721359549995796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9257477676655501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4522186436461695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.85472369909914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8679197109581391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4899888641287298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1FF-4C36-9FAE-89B5E4B4991D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$138</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testing_mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$139:$A$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$139:$D$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1FF-4C36-9FAE-89B5E4B4991D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$138</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testing_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$139:$A$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$139:$E$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.5931013969515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5869379764718801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3105890714493702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1613951602255703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1761226035642096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0976176963403002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6043457732885296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7916594202843701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4819347291981702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.31058907144936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A1FF-4C36-9FAE-89B5E4B4991D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="940874319"/>
+        <c:axId val="940865583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="940874319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="940865583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="940865583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="940874319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2479,6 +3211,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3512,6 +4284,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4132,6 +5420,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68ED30D3-BBF7-F102-C86F-11A9B939C705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4437,10 +5761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08566CCC-6763-453E-8801-EA19C001A233}">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,9 +6896,378 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="B125">
+        <v>76.2</v>
+      </c>
+      <c r="C125">
+        <v>83.8</v>
+      </c>
+      <c r="D125">
+        <v>81</v>
+      </c>
+      <c r="E125">
+        <v>84.6</v>
+      </c>
+      <c r="F125">
+        <v>91.2</v>
+      </c>
+      <c r="G125">
+        <v>82.6</v>
+      </c>
+      <c r="H125">
+        <v>90.4</v>
+      </c>
+      <c r="I125">
+        <v>88.4</v>
+      </c>
+      <c r="J125">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>9.0686272390036997</v>
+      </c>
+      <c r="B128">
+        <v>5.1536394906900496</v>
+      </c>
+      <c r="C128">
+        <v>5.4184868736576197</v>
+      </c>
+      <c r="D128">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="E128">
+        <v>2.8</v>
+      </c>
+      <c r="F128">
+        <v>2.9257477676655501</v>
+      </c>
+      <c r="G128">
+        <v>8.4522186436461695</v>
+      </c>
+      <c r="H128">
+        <v>1.85472369909914</v>
+      </c>
+      <c r="I128">
+        <v>8.8679197109581391</v>
+      </c>
+      <c r="J128">
+        <v>4.4899888641287298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>71</v>
+      </c>
+      <c r="B131">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="C131">
+        <v>79.2</v>
+      </c>
+      <c r="D131">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E131">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="F131">
+        <v>81</v>
+      </c>
+      <c r="G131">
+        <v>78</v>
+      </c>
+      <c r="H131">
+        <v>83.2</v>
+      </c>
+      <c r="I131">
+        <v>83.2</v>
+      </c>
+      <c r="J131">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>11.5931013969515</v>
+      </c>
+      <c r="B134">
+        <v>4.5869379764718801</v>
+      </c>
+      <c r="C134">
+        <v>3.3105890714493702</v>
+      </c>
+      <c r="D134">
+        <v>5.1613951602255703</v>
+      </c>
+      <c r="E134">
+        <v>4.1761226035642096</v>
+      </c>
+      <c r="F134">
+        <v>2.0976176963403002</v>
+      </c>
+      <c r="G134">
+        <v>4.6043457732885296</v>
+      </c>
+      <c r="H134">
+        <v>4.7916594202843701</v>
+      </c>
+      <c r="I134">
+        <v>2.4819347291981702</v>
+      </c>
+      <c r="J134">
+        <v>3.31058907144936</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>500</v>
+      </c>
+      <c r="B139" cm="1">
+        <f t="array" ref="B139:B148">TRANSPOSE(A125:J125)</f>
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C139" cm="1">
+        <f t="array" ref="C139:C148">TRANSPOSE(A128:J128)</f>
+        <v>9.0686272390036997</v>
+      </c>
+      <c r="D139" cm="1">
+        <f t="array" ref="D139:D148">TRANSPOSE(A131:J131)</f>
+        <v>71</v>
+      </c>
+      <c r="E139" cm="1">
+        <f t="array" ref="E139:E148">TRANSPOSE(A134:J134)</f>
+        <v>11.5931013969515</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1000</v>
+      </c>
+      <c r="B140">
+        <v>76.2</v>
+      </c>
+      <c r="C140">
+        <v>5.1536394906900496</v>
+      </c>
+      <c r="D140">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E140">
+        <v>4.5869379764718801</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1500</v>
+      </c>
+      <c r="B141">
+        <v>83.8</v>
+      </c>
+      <c r="C141">
+        <v>5.4184868736576197</v>
+      </c>
+      <c r="D141">
+        <v>79.2</v>
+      </c>
+      <c r="E141">
+        <v>3.3105890714493702</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2000</v>
+      </c>
+      <c r="B142">
+        <v>81</v>
+      </c>
+      <c r="C142">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="D142">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E142">
+        <v>5.1613951602255703</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2500</v>
+      </c>
+      <c r="B143">
+        <v>84.6</v>
+      </c>
+      <c r="C143">
+        <v>2.8</v>
+      </c>
+      <c r="D143">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E143">
+        <v>4.1761226035642096</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>3000</v>
+      </c>
+      <c r="B144">
+        <v>91.2</v>
+      </c>
+      <c r="C144">
+        <v>2.9257477676655501</v>
+      </c>
+      <c r="D144">
+        <v>81</v>
+      </c>
+      <c r="E144">
+        <v>2.0976176963403002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3500</v>
+      </c>
+      <c r="B145">
+        <v>82.6</v>
+      </c>
+      <c r="C145">
+        <v>8.4522186436461695</v>
+      </c>
+      <c r="D145">
+        <v>78</v>
+      </c>
+      <c r="E145">
+        <v>4.6043457732885296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>4000</v>
+      </c>
+      <c r="B146">
+        <v>90.4</v>
+      </c>
+      <c r="C146">
+        <v>1.85472369909914</v>
+      </c>
+      <c r="D146">
+        <v>83.2</v>
+      </c>
+      <c r="E146">
+        <v>4.7916594202843701</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>4500</v>
+      </c>
+      <c r="B147">
+        <v>88.4</v>
+      </c>
+      <c r="C147">
+        <v>8.8679197109581391</v>
+      </c>
+      <c r="D147">
+        <v>83.2</v>
+      </c>
+      <c r="E147">
+        <v>2.4819347291981702</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5000</v>
+      </c>
+      <c r="B148">
+        <v>91.2</v>
+      </c>
+      <c r="C148">
+        <v>4.4899888641287298</v>
+      </c>
+      <c r="D148">
+        <v>81.2</v>
+      </c>
+      <c r="E148">
+        <v>3.31058907144936</v>
       </c>
     </row>
   </sheetData>
@@ -5584,18 +7277,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5713,6 +7406,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50046342-F0B3-4219-BBC8-45BFFA515648}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D54677C9-610C-4175-AB1D-9BBBCD2D021D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5723,14 +7424,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50046342-F0B3-4219-BBC8-45BFFA515648}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
